--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,45 @@
     <t>name</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>hate</t>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -97,52 +91,52 @@
     <t>great</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>important</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>dilemma</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
     <t>watch</t>
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -511,10 +505,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +566,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>0.9444444444444444</v>
@@ -622,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -640,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -664,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -672,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9242424242424242</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.8070175438596491</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.7666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -764,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -772,7 +766,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8125</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C7">
         <v>13</v>
@@ -790,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.6551724137931034</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -814,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -822,13 +816,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -840,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.631578947368421</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L8">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -864,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -872,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -890,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.5866666666666667</v>
+        <v>0.52</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -914,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -922,13 +916,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.625</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -940,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.5333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -964,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -972,13 +966,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6159420289855072</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C11">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -990,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.3333333333333333</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1014,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1022,13 +1016,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6086956521739131</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1040,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.2592592592592592</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1072,7 +1066,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1090,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.2153846153846154</v>
+        <v>0.1302367941712204</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1114,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>51</v>
+        <v>955</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1122,13 +1116,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5128205128205128</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1140,31 +1134,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.122151321786691</v>
+        <v>0.07420494699646643</v>
       </c>
       <c r="L14">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>963</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1172,13 +1166,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5106382978723404</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1190,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K15">
         <v>0.06851851851851852</v>
@@ -1222,13 +1216,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1240,113 +1234,65 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.05421686746987952</v>
+      </c>
+      <c r="L16">
+        <v>36</v>
+      </c>
+      <c r="M16">
+        <v>36</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.05396825396825397</v>
+      </c>
+      <c r="L17">
+        <v>17</v>
+      </c>
+      <c r="M17">
+        <v>17</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K16">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="L16">
-        <v>21</v>
-      </c>
-      <c r="M16">
-        <v>21</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.4571428571428571</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>19</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>0.06024096385542169</v>
-      </c>
-      <c r="L17">
-        <v>40</v>
-      </c>
-      <c r="M17">
-        <v>40</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2564102564102564</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>58</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="K18">
-        <v>0.06007067137809187</v>
+        <v>0.0275974025974026</v>
       </c>
       <c r="L18">
         <v>17</v>
@@ -1364,21 +1310,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.02361751152073733</v>
+      </c>
+      <c r="L19">
         <v>41</v>
       </c>
-      <c r="K19">
-        <v>0.03246753246753246</v>
-      </c>
-      <c r="L19">
-        <v>20</v>
-      </c>
       <c r="M19">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1390,33 +1336,33 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.02361751152073733</v>
+        <v>0.01794871794871795</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>1695</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
